--- a/gdx-psd-tools/excel/test.xlsx
+++ b/gdx-psd-tools/excel/test.xlsx
@@ -4,23 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="19335" windowHeight="7545"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="19335" windowHeight="7545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Entrances" sheetId="1" r:id="rId1"/>
+    <sheet name="Config" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="金币">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>Test#id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +149,137 @@
   </si>
   <si>
     <t>array_map#[{}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏中手指滑动的灵敏度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏中手指滑动的灵敏度</t>
+  </si>
+  <si>
+    <t>球落点的偏移范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色走动敏捷值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色真实最大敏捷值（值已废弃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更衣室中显示的最大值
+(数据表中填写的是比例值，在显示时候需要以这个值为参考进行转换)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小球速
+KM/H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男子组最大球速
+KM/H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女子组最大球速
+KM/H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家发球Y方向的力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC发球Y方向的力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球的弹性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面和墙的弹力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网的弹力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SensitivityX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SensitivityZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OffsetX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OffsetZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WalkSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxAgility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowMaxValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinBallVelocity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxBallVelocity_Man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxBallVelocity_Woman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gravity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamersServeVelocityY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPCServeVelocityY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BallElastic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GWElastic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetElastic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Config,Key=0,Value=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +309,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,13 +328,46 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -218,11 +380,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -232,6 +391,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -310,31 +491,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Config"/>
-      <sheetName val="Role"/>
-      <sheetName val="Racquets"/>
-      <sheetName val="Shoes"/>
-      <sheetName val="Entrances"/>
-      <sheetName val="Recharge"/>
-      <sheetName val="Ranking"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -624,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -638,12 +794,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="2"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -672,13 +828,13 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F4" t="s">
@@ -692,13 +848,13 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -709,13 +865,13 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -729,7 +885,7 @@
       <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -743,7 +899,7 @@
       <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -757,7 +913,7 @@
       <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -771,7 +927,7 @@
       <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -783,4 +939,210 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="8">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="8">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="8">
+        <v>16.5</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="40.5">
+      <c r="A9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="8">
+        <v>999</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27">
+      <c r="A10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="8">
+        <v>95</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27">
+      <c r="A11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="8">
+        <v>251</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27">
+      <c r="A12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="8">
+        <v>207</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="8">
+        <v>-49</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="8">
+        <v>20</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="8">
+        <v>18</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>